--- a/dataien/Analytische_Rubrik_Lernaufgaben_Teil_1.xlsx
+++ b/dataien/Analytische_Rubrik_Lernaufgaben_Teil_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\upt11\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Warenkorb\Warenkorb\dataien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EB8859-E86A-4399-9521-B99BE073F38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D7E1F-5DAA-4331-9D99-98688DEE900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnalytischeRubrikLernaufgaben" sheetId="1" r:id="rId1"/>
@@ -760,24 +760,24 @@
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="55.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="55.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11"/>
       <c r="C2" s="22" t="s">
         <v>8</v>
@@ -796,7 +796,7 @@
       </c>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="2:11" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -825,7 +825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>3</v>
       </c>
@@ -847,13 +847,15 @@
       <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -869,15 +871,13 @@
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="I5" s="13"/>
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
         <v>1</v>
       </c>
@@ -899,7 +899,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:11" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:11" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -942,30 +942,30 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15">
         <f>IF(COUNTA(I4:I7)&gt;1,"Bitte nur EIN x",IF(I4="x",3,IF(I5="x",2,IF(I6="x",1,IF(I7="x",0,"Bitte X angeben!")))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="2:11" s="4" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="4" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="17">
         <f>IF(ISERROR((C8*D3+E8*F3+G8*H3+I8*J3)/100),"Bitte überall ein Kreuz",(C8*D3+E8*F3+G8*H3+I8*J3)/100)</f>
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="18">
         <f>IF(ISERROR(100/3*D10),"Bitte überall ein Kreuz",100/3*D10)</f>
-        <v>91.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
